--- a/Analises.xlsx
+++ b/Analises.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e66f0b7e9f7bd981/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositorios_github\trabalho-pratico-grafos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91820300-3DF0-454D-A750-D2AD585C281D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2172C1-8844-4C7B-A649-8E9EAF6A5880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5284AA44-785E-45DB-9A80-EBD67B50DEA5}"/>
   </bookViews>
@@ -462,9 +462,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -473,6 +470,9 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,7 +791,7 @@
   <dimension ref="B1:P105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,10 +845,10 @@
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="5"/>
+      <c r="O1" s="12"/>
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
@@ -923,22 +923,22 @@
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="4">
         <f>COUNTIF($B$2:$B$105,L3)</f>
         <v>26</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <f>SUMIFS($F$2:$F$105,$B$2:$B$105,$L3,$E$2:$E$105,N$2)/$M3</f>
         <v>316.34615384615387</v>
       </c>
-      <c r="O3" s="7">
-        <f>SUMIFS($F$2:$F$105,$B$2:$B$105,$L3,$E$2:$E$105,O$2)/$M$3</f>
+      <c r="O3" s="6">
+        <f>SUMIFS($F$2:$F$105,$B$2:$B$105,$L3,$E$2:$E$105,O$2)/$M3</f>
         <v>252.23076923076923</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <f>1 - O3/N3</f>
         <v>0.20267477203647422</v>
       </c>
@@ -971,23 +971,23 @@
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M6" si="0">COUNTIF($B$2:$B$105,L4)</f>
+        <f t="shared" ref="M4" si="0">COUNTIF($B$2:$B$105,L4)</f>
         <v>26</v>
       </c>
-      <c r="N4" s="7">
-        <f t="shared" ref="N4:N6" si="1">SUMIFS($F$2:$F$105,$B$2:$B$105,$L4,$E$2:$E$105,N$2)/$M4</f>
+      <c r="N4" s="6">
+        <f t="shared" ref="N4:O5" si="1">SUMIFS($F$2:$F$105,$B$2:$B$105,$L4,$E$2:$E$105,N$2)/$M4</f>
         <v>276.57692307692309</v>
       </c>
-      <c r="O4" s="7">
-        <f t="shared" ref="O4:O6" si="2">SUMIFS($F$2:$F$105,$B$2:$B$105,$L4,$E$2:$E$105,O$2)/$M$3</f>
+      <c r="O4" s="6">
+        <f t="shared" si="1"/>
         <v>235.03846153846155</v>
       </c>
-      <c r="P4" s="8">
-        <f t="shared" ref="P4:P6" si="3">1 - O4/N4</f>
+      <c r="P4" s="7">
+        <f t="shared" ref="P4" si="2">1 - O4/N4</f>
         <v>0.15018773466833546</v>
       </c>
     </row>
@@ -1019,22 +1019,22 @@
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="4">
         <f>COUNTIF($B$2:$B$105,L5)</f>
         <v>26</v>
       </c>
-      <c r="N5" s="7">
-        <f>SUMIFS($F$2:$F$105,$B$2:$B$105,$L5,$E$2:$E$105,N$2)/$M5</f>
+      <c r="N5" s="6">
+        <f t="shared" si="1"/>
         <v>148.65384615384616</v>
       </c>
-      <c r="O5" s="7">
-        <f>SUMIFS($F$2:$F$105,$B$2:$B$105,$L5,$E$2:$E$105,O$2)/$M$3</f>
+      <c r="O5" s="6">
+        <f t="shared" si="1"/>
         <v>112.69230769230769</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <f>1 - O5/N5</f>
         <v>0.24191461836998707</v>
       </c>
@@ -1067,18 +1067,18 @@
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <f>AVERAGE(N3:N5)</f>
         <v>247.19230769230771</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <f>AVERAGE(O3:O5)</f>
         <v>199.98717948717947</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <f>AVERAGE(P3:P5)</f>
         <v>0.19825904169159891</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="J19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="12"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
